--- a/h.xlsx
+++ b/h.xlsx
@@ -470,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -562,6 +562,37 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,7 +719,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,34 +731,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,7 +903,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,7 +949,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -927,19 +961,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1368,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1394,39 +1440,42 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:8">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="21">
         <v>45679</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/h.xlsx
+++ b/h.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
   </si>
@@ -42,22 +42,16 @@
     <t>Commercial Invoice</t>
   </si>
   <si>
-    <t xml:space="preserve">Buyer: UNICAIR(HOLDINGS) LIMITED                                                                                   </t>
+    <t xml:space="preserve">Buyer:                                                                   </t>
   </si>
   <si>
-    <t xml:space="preserve">CI No.: </t>
+    <t xml:space="preserve">Invoice Number: </t>
   </si>
   <si>
-    <t>CXCI2025012201</t>
-  </si>
-  <si>
-    <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
+    <t>ADD:</t>
   </si>
   <si>
     <t>Date:</t>
-  </si>
-  <si>
-    <t>PO No.:</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1362,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1378,7 +1372,7 @@
     <col min="3" max="3" width="22.3363636363636" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.1636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5818181818182" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.1636363636364" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.6636363636364" style="2" customWidth="1"/>
@@ -1444,25 +1438,21 @@
       <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="G5" s="21">
-        <v>45679</v>
-      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:8">
@@ -1471,9 +1461,7 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="26" t="s">
-        <v>8</v>
-      </c>
+      <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="27"/>
     </row>
@@ -1485,7 +1473,7 @@
     <mergeCell ref="A5:C6"/>
   </mergeCells>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1,278 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="621"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="621" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CXCI2025012201" sheetId="26" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CXCI2025012201!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CXCI2025012201!$A$1:$H$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CXCI2025012201'!$A$1:$H$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
-  </si>
-  <si>
-    <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
-  </si>
-  <si>
-    <t>Commercial Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyer:                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice Number: </t>
-  </si>
-  <si>
-    <t>ADD:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-10804]0"/>
-    <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="167" formatCode="[$-10804]0"/>
+    <numFmt numFmtId="168" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="28">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
       <color indexed="8"/>
+      <sz val="18"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="20"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -464,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -687,301 +642,354 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="71">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,16 +1065,7 @@
     <cellStyle name="常规_Pac-03_7" xfId="70"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="00FFFF00"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -1355,8 +1354,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
@@ -1365,118 +1365,129 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="4.83636363636364" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5818181818182" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1636363636364" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6636363636364" style="2" customWidth="1"/>
-    <col min="10" max="11" width="10.1636363636364" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.6636363636364" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.6636363636364" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="19" width="12.8363636363636" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.8363636363636" style="1" customWidth="1"/>
-    <col min="21" max="22" width="12.1636363636364" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.66363636363636" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.8363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83636363636364" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col width="4.83636363636364" customWidth="1" style="16" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="16" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="16" min="3" max="3"/>
+    <col width="26" customWidth="1" style="16" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="16" min="5" max="5"/>
+    <col width="17.5818181818182" customWidth="1" style="16" min="6" max="6"/>
+    <col width="12" customWidth="1" style="16" min="7" max="7"/>
+    <col width="18.1636363636364" customWidth="1" style="16" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="28" min="9" max="9"/>
+    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
+    <col width="9" customWidth="1" style="29" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="29" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="16" min="14" max="14"/>
+    <col width="9" customWidth="1" style="16" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="16" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="16" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="16" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="16" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="16" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="16" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="16" min="26" max="26"/>
+    <col width="9" customWidth="1" style="16" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+    <row r="1" ht="49" customHeight="1" s="30">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>test Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="32" t="n"/>
+      <c r="C1" s="32" t="n"/>
+      <c r="D1" s="32" t="n"/>
+      <c r="E1" s="32" t="n"/>
+      <c r="F1" s="32" t="n"/>
+      <c r="G1" s="32" t="n"/>
+      <c r="H1" s="33" t="n"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
+    <row r="2" ht="30" customHeight="1" s="30">
+      <c r="A2" s="34" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+        </is>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="32" t="n"/>
+      <c r="C2" s="32" t="n"/>
+      <c r="D2" s="32" t="n"/>
+      <c r="E2" s="32" t="n"/>
+      <c r="F2" s="32" t="n"/>
+      <c r="G2" s="32" t="n"/>
+      <c r="H2" s="33" t="n"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
+    <row r="3" ht="30" customHeight="1" s="30">
+      <c r="A3" s="35" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="36" t="n"/>
+      <c r="C3" s="36" t="n"/>
+      <c r="D3" s="36" t="n"/>
+      <c r="E3" s="36" t="n"/>
+      <c r="F3" s="36" t="n"/>
+      <c r="G3" s="36" t="n"/>
+      <c r="H3" s="37" t="n"/>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:8">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
+    <row r="4" ht="16" customHeight="1" s="30">
+      <c r="A4" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer:                                                                   </t>
+        </is>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
-        <v>4</v>
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="15" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Invoice Number: </t>
+        </is>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="17" t="n"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:8">
-      <c r="A5" s="18" t="s">
-        <v>5</v>
+    <row r="5" ht="16" customHeight="1" s="30">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>ADD:</t>
+        </is>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20" t="s">
-        <v>6</v>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="38" t="n"/>
+      <c r="H5" s="22" t="n"/>
     </row>
-    <row r="6" ht="16" customHeight="1" spans="1:8">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+    <row r="6" ht="16" customHeight="1" s="30">
+      <c r="A6" s="39" t="n"/>
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="40" t="n"/>
+      <c r="D6" s="24" t="n"/>
+      <c r="E6" s="25" t="n"/>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="26" t="n"/>
+      <c r="H6" s="27" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9" scale="73" fitToHeight="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
+    <brk id="8" min="0" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/h.xlsx
+++ b/h.xlsx
@@ -419,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -431,7 +431,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -462,7 +464,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -642,34 +646,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -880,7 +856,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,45 +873,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -950,9 +909,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -972,24 +930,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,7 +1008,74 @@
     <cellStyle name="常规_Pac-03_7" xfId="70"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1362,120 +1372,120 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
-    <col width="4.83636363636364" customWidth="1" style="16" min="1" max="1"/>
-    <col width="22.6636363636364" customWidth="1" style="16" min="2" max="2"/>
-    <col width="22.3363636363636" customWidth="1" style="16" min="3" max="3"/>
-    <col width="26" customWidth="1" style="16" min="4" max="4"/>
-    <col width="13.1636363636364" customWidth="1" style="16" min="5" max="5"/>
-    <col width="17.5818181818182" customWidth="1" style="16" min="6" max="6"/>
-    <col width="12" customWidth="1" style="16" min="7" max="7"/>
-    <col width="18.1636363636364" customWidth="1" style="16" min="8" max="8"/>
-    <col width="10.6636363636364" customWidth="1" style="28" min="9" max="9"/>
+    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
+    <col width="26" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
+    <col width="17.5818181818182" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="26" min="9" max="9"/>
     <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
-    <col width="9" customWidth="1" style="29" min="12" max="12"/>
-    <col width="10.6636363636364" customWidth="1" style="29" min="13" max="13"/>
-    <col width="11.6636363636364" customWidth="1" style="16" min="14" max="14"/>
-    <col width="9" customWidth="1" style="16" min="15" max="15"/>
-    <col width="12.8363636363636" customWidth="1" style="16" min="16" max="19"/>
-    <col width="11.8363636363636" customWidth="1" style="16" min="20" max="20"/>
-    <col width="12.1636363636364" customWidth="1" style="16" min="21" max="22"/>
-    <col width="5.66363636363636" customWidth="1" style="16" min="23" max="23"/>
-    <col width="11.8363636363636" customWidth="1" style="16" min="24" max="24"/>
-    <col width="7.5" customWidth="1" style="16" min="25" max="25"/>
-    <col width="8.83636363636364" customWidth="1" style="16" min="26" max="26"/>
-    <col width="9" customWidth="1" style="16" min="27" max="16384"/>
+    <col width="9" customWidth="1" style="27" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="27" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49" customHeight="1" s="30">
-      <c r="A1" s="31" t="inlineStr">
+    <row r="1" ht="49" customHeight="1" s="28">
+      <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>test Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="32" t="n"/>
-      <c r="E1" s="32" t="n"/>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="7" t="n"/>
     </row>
-    <row r="2" ht="30" customHeight="1" s="30">
-      <c r="A2" s="34" t="inlineStr">
+    <row r="2" ht="30" customHeight="1" s="28">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
         </is>
       </c>
-      <c r="B2" s="32" t="n"/>
-      <c r="C2" s="32" t="n"/>
-      <c r="D2" s="32" t="n"/>
-      <c r="E2" s="32" t="n"/>
-      <c r="F2" s="32" t="n"/>
-      <c r="G2" s="32" t="n"/>
-      <c r="H2" s="33" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="n"/>
     </row>
-    <row r="3" ht="30" customHeight="1" s="30">
-      <c r="A3" s="35" t="inlineStr">
+    <row r="3" ht="30" customHeight="1" s="28">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
-      <c r="B3" s="36" t="n"/>
-      <c r="C3" s="36" t="n"/>
-      <c r="D3" s="36" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
-      <c r="G3" s="36" t="n"/>
-      <c r="H3" s="37" t="n"/>
+      <c r="B3" s="10" t="n"/>
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="10" t="n"/>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="11" t="n"/>
     </row>
-    <row r="4" ht="16" customHeight="1" s="30">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="16" customHeight="1" s="28">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer:                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Invoice Number: </t>
         </is>
       </c>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="17" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="14" t="n"/>
     </row>
-    <row r="5" ht="16" customHeight="1" s="30">
-      <c r="A5" s="23" t="inlineStr">
+    <row r="5" ht="16" customHeight="1" s="28">
+      <c r="A5" s="15" t="inlineStr">
         <is>
           <t>ADD:</t>
         </is>
       </c>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="16" t="n"/>
-      <c r="F5" s="20" t="inlineStr">
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="17" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="38" t="n"/>
-      <c r="H5" s="22" t="n"/>
+      <c r="G5" s="29" t="n"/>
+      <c r="H5" s="19" t="n"/>
     </row>
-    <row r="6" ht="16" customHeight="1" s="30">
-      <c r="A6" s="39" t="n"/>
-      <c r="B6" s="40" t="n"/>
-      <c r="C6" s="40" t="n"/>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="25" t="n"/>
-      <c r="F6" s="26" t="n"/>
-      <c r="G6" s="26" t="n"/>
-      <c r="H6" s="27" t="n"/>
+    <row r="6" ht="16" customHeight="1" s="28">
+      <c r="A6" s="20" t="n"/>
+      <c r="B6" s="21" t="n"/>
+      <c r="C6" s="21" t="n"/>
+      <c r="D6" s="22" t="n"/>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="24" t="n"/>
+      <c r="G6" s="24" t="n"/>
+      <c r="H6" s="25" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/h.xlsx
+++ b/h.xlsx
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
@@ -1384,7 +1384,7 @@
     <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
     <col width="17.5818181818182" customWidth="1" style="1" min="6" max="6"/>
     <col width="12" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.1636363636364" customWidth="1" style="1" min="8" max="8"/>
+    <col width="35.1818181818182" customWidth="1" style="1" min="8" max="8"/>
     <col width="10.6636363636364" customWidth="1" style="26" min="9" max="9"/>
     <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
     <col width="9" customWidth="1" style="27" min="12" max="12"/>
@@ -1418,7 +1418,7 @@
     <row r="2" ht="30" customHeight="1" s="28">
       <c r="A2" s="8" t="inlineStr">
         <is>
-          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen.</t>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
         </is>
       </c>
       <c r="B2" s="6" t="n"/>
@@ -1495,7 +1495,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="73" fitToHeight="0"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="65" fitToHeight="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" min="0" max="1048575" man="1"/>
   </colBreaks>

--- a/h.xlsx
+++ b/h.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="621" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="621" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CXCI2025012201'!$A$1:$H$6</definedName>
@@ -18,9 +19,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="167" formatCode="[$-10804]0"/>
     <numFmt numFmtId="168" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="169" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
@@ -36,12 +37,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <b val="1"/>
       <color indexed="8"/>
       <sz val="18"/>
@@ -62,6 +57,12 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
@@ -419,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -431,9 +432,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -464,9 +463,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -515,6 +512,34 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,7 +697,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
@@ -684,34 +709,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
@@ -856,83 +881,154 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1371,121 +1467,121 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="139" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
-    <col width="4.83636363636364" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22.6636363636364" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.3363636363636" customWidth="1" style="1" min="3" max="3"/>
-    <col width="26" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13.1636363636364" customWidth="1" style="1" min="5" max="5"/>
-    <col width="17.5818181818182" customWidth="1" style="1" min="6" max="6"/>
-    <col width="12" customWidth="1" style="1" min="7" max="7"/>
-    <col width="35.1818181818182" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.6636363636364" customWidth="1" style="26" min="9" max="9"/>
-    <col width="10.1636363636364" customWidth="1" style="3" min="10" max="11"/>
-    <col width="9" customWidth="1" style="27" min="12" max="12"/>
-    <col width="10.6636363636364" customWidth="1" style="27" min="13" max="13"/>
-    <col width="11.6636363636364" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="15"/>
-    <col width="12.8363636363636" customWidth="1" style="1" min="16" max="19"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="20" max="20"/>
-    <col width="12.1636363636364" customWidth="1" style="1" min="21" max="22"/>
-    <col width="5.66363636363636" customWidth="1" style="1" min="23" max="23"/>
-    <col width="11.8363636363636" customWidth="1" style="1" min="24" max="24"/>
-    <col width="7.5" customWidth="1" style="1" min="25" max="25"/>
-    <col width="8.83636363636364" customWidth="1" style="1" min="26" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="4.83636363636364" customWidth="1" style="24" min="1" max="1"/>
+    <col width="22.6636363636364" customWidth="1" style="24" min="2" max="2"/>
+    <col width="22.3363636363636" customWidth="1" style="24" min="3" max="3"/>
+    <col width="26" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.1636363636364" customWidth="1" style="24" min="5" max="5"/>
+    <col width="17.5818181818182" customWidth="1" style="24" min="6" max="6"/>
+    <col width="12" customWidth="1" style="24" min="7" max="7"/>
+    <col width="35.1818181818182" customWidth="1" style="24" min="8" max="8"/>
+    <col width="10.6636363636364" customWidth="1" style="49" min="9" max="9"/>
+    <col width="10.1636363636364" customWidth="1" style="26" min="10" max="11"/>
+    <col width="9" customWidth="1" style="50" min="12" max="12"/>
+    <col width="10.6636363636364" customWidth="1" style="50" min="13" max="13"/>
+    <col width="11.6636363636364" customWidth="1" style="24" min="14" max="14"/>
+    <col width="9" customWidth="1" style="24" min="15" max="15"/>
+    <col width="12.8363636363636" customWidth="1" style="24" min="16" max="19"/>
+    <col width="11.8363636363636" customWidth="1" style="24" min="20" max="20"/>
+    <col width="12.1636363636364" customWidth="1" style="24" min="21" max="22"/>
+    <col width="5.66363636363636" customWidth="1" style="24" min="23" max="23"/>
+    <col width="11.8363636363636" customWidth="1" style="24" min="24" max="24"/>
+    <col width="7.5" customWidth="1" style="24" min="25" max="25"/>
+    <col width="8.83636363636364" customWidth="1" style="24" min="26" max="26"/>
+    <col width="9" customWidth="1" style="24" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49" customHeight="1" s="28">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="49" customHeight="1" s="51">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="6" t="n"/>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="6" t="n"/>
-      <c r="G1" s="6" t="n"/>
-      <c r="H1" s="7" t="n"/>
+      <c r="B1" s="29" t="n"/>
+      <c r="C1" s="29" t="n"/>
+      <c r="D1" s="29" t="n"/>
+      <c r="E1" s="29" t="n"/>
+      <c r="F1" s="29" t="n"/>
+      <c r="G1" s="29" t="n"/>
+      <c r="H1" s="30" t="n"/>
     </row>
-    <row r="2" ht="30" customHeight="1" s="28">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2" ht="30" customHeight="1" s="51">
+      <c r="A2" s="31" t="inlineStr">
         <is>
           <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="7" t="n"/>
+      <c r="B2" s="29" t="n"/>
+      <c r="C2" s="29" t="n"/>
+      <c r="D2" s="29" t="n"/>
+      <c r="E2" s="29" t="n"/>
+      <c r="F2" s="29" t="n"/>
+      <c r="G2" s="29" t="n"/>
+      <c r="H2" s="30" t="n"/>
     </row>
-    <row r="3" ht="30" customHeight="1" s="28">
-      <c r="A3" s="9" t="inlineStr">
+    <row r="3" ht="30" customHeight="1" s="51">
+      <c r="A3" s="32" t="inlineStr">
         <is>
           <t>Commercial Invoice</t>
         </is>
       </c>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="10" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
-      <c r="F3" s="10" t="n"/>
-      <c r="G3" s="10" t="n"/>
-      <c r="H3" s="11" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="33" t="n"/>
+      <c r="D3" s="33" t="n"/>
+      <c r="E3" s="33" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="33" t="n"/>
+      <c r="H3" s="34" t="n"/>
     </row>
-    <row r="4" ht="16" customHeight="1" s="28">
-      <c r="A4" s="12" t="inlineStr">
+    <row r="4" ht="16" customHeight="1" s="51">
+      <c r="A4" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve">Buyer:                                                                   </t>
         </is>
       </c>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="B4" s="36" t="n"/>
+      <c r="C4" s="36" t="n"/>
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="24" t="n"/>
+      <c r="F4" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">Invoice Number: </t>
         </is>
       </c>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="14" t="n"/>
+      <c r="G4" s="36" t="n"/>
+      <c r="H4" s="37" t="n"/>
     </row>
-    <row r="5" ht="16" customHeight="1" s="28">
-      <c r="A5" s="15" t="inlineStr">
+    <row r="5" ht="16" customHeight="1" s="51">
+      <c r="A5" s="38" t="inlineStr">
         <is>
           <t>ADD:</t>
         </is>
       </c>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="17" t="inlineStr">
+      <c r="D5" s="39" t="n"/>
+      <c r="E5" s="24" t="n"/>
+      <c r="F5" s="40" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="G5" s="29" t="n"/>
-      <c r="H5" s="19" t="n"/>
+      <c r="G5" s="52" t="n"/>
+      <c r="H5" s="42" t="n"/>
     </row>
-    <row r="6" ht="16" customHeight="1" s="28">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="21" t="n"/>
-      <c r="C6" s="21" t="n"/>
-      <c r="D6" s="22" t="n"/>
-      <c r="E6" s="23" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="24" t="n"/>
-      <c r="H6" s="25" t="n"/>
+    <row r="6" ht="16" customHeight="1" s="51">
+      <c r="A6" s="43" t="n"/>
+      <c r="B6" s="44" t="n"/>
+      <c r="C6" s="44" t="n"/>
+      <c r="D6" s="45" t="n"/>
+      <c r="E6" s="46" t="n"/>
+      <c r="F6" s="47" t="n"/>
+      <c r="G6" s="47" t="n"/>
+      <c r="H6" s="48" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1500,4 +1596,180 @@
     <brk id="8" min="0" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col width="50.4545454545455" customWidth="1" style="51" min="1" max="1"/>
+    <col width="16" customWidth="1" style="51" min="6" max="6"/>
+    <col width="15.3636363636364" customWidth="1" style="51" min="7" max="7"/>
+    <col width="8.72727272727273" customWidth="1" style="51" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.25" customHeight="1" s="51">
+      <c r="A1" s="28" t="inlineStr">
+        <is>
+          <t>Shibo Chuangxiang Digital Technology (Shenzhen) Co., LTD</t>
+        </is>
+      </c>
+      <c r="B1" s="29" t="n"/>
+      <c r="C1" s="29" t="n"/>
+      <c r="D1" s="29" t="n"/>
+      <c r="E1" s="29" t="n"/>
+      <c r="F1" s="29" t="n"/>
+      <c r="G1" s="29" t="n"/>
+      <c r="H1" s="30" t="n"/>
+    </row>
+    <row r="2" ht="15.25" customHeight="1" s="51">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>Room 1501, Shenzhen International Qianhai Yidu Tower, No.99, Gangcheng Street, Nanshan Street, Qianhai Shenzhen-Hong Kong Cooperation Zone, Shenzhen</t>
+        </is>
+      </c>
+      <c r="B2" s="29" t="n"/>
+      <c r="C2" s="29" t="n"/>
+      <c r="D2" s="29" t="n"/>
+      <c r="E2" s="29" t="n"/>
+      <c r="F2" s="29" t="n"/>
+      <c r="G2" s="29" t="n"/>
+      <c r="H2" s="30" t="n"/>
+    </row>
+    <row r="3" ht="26.75" customHeight="1" s="51">
+      <c r="A3" s="32" t="inlineStr">
+        <is>
+          <t>Commercial Invoice</t>
+        </is>
+      </c>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="33" t="n"/>
+      <c r="D3" s="33" t="n"/>
+      <c r="E3" s="33" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="33" t="n"/>
+      <c r="H3" s="34" t="n"/>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" s="51">
+      <c r="A4" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buyer:                                                                                    </t>
+        </is>
+      </c>
+      <c r="B4" s="36" t="n"/>
+      <c r="C4" s="36" t="n"/>
+      <c r="D4" s="36" t="n"/>
+      <c r="E4" s="24" t="n"/>
+      <c r="F4" s="36" t="inlineStr">
+        <is>
+          <t>Invoice Number:</t>
+        </is>
+      </c>
+      <c r="G4" s="36" t="n"/>
+      <c r="H4" s="37" t="n"/>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" s="51">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>ADD:</t>
+        </is>
+      </c>
+      <c r="D5" s="39" t="n"/>
+      <c r="E5" s="24" t="n"/>
+      <c r="F5" s="40" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="G5" s="52" t="n"/>
+      <c r="H5" s="42" t="n"/>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" s="51">
+      <c r="A6" s="53" t="n"/>
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="24" t="n"/>
+      <c r="F6" s="40" t="inlineStr">
+        <is>
+          <t>Customer PO No.:</t>
+        </is>
+      </c>
+      <c r="G6" s="20" t="n"/>
+      <c r="H6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" s="51">
+      <c r="A7" s="35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attn: </t>
+        </is>
+      </c>
+      <c r="B7" s="36" t="n"/>
+      <c r="C7" s="36" t="n"/>
+      <c r="D7" s="36" t="n"/>
+      <c r="E7" s="24" t="n"/>
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GST NO: </t>
+        </is>
+      </c>
+      <c r="H7" s="54" t="n"/>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" s="51">
+      <c r="A8" s="35" t="inlineStr">
+        <is>
+          <t>EMAIL:</t>
+        </is>
+      </c>
+      <c r="B8" s="36" t="n"/>
+      <c r="C8" s="36" t="n"/>
+      <c r="D8" s="36" t="n"/>
+      <c r="E8" s="36" t="n"/>
+      <c r="F8" s="21" t="inlineStr">
+        <is>
+          <t>IEC CODE:</t>
+        </is>
+      </c>
+      <c r="H8" s="54" t="n"/>
+    </row>
+    <row r="9" ht="14.5" customHeight="1" s="51">
+      <c r="A9" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tel: </t>
+        </is>
+      </c>
+      <c r="B9" s="23" t="n"/>
+      <c r="C9" s="36" t="n"/>
+      <c r="D9" s="36" t="n"/>
+      <c r="E9" s="36" t="n"/>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAN NO: </t>
+        </is>
+      </c>
+      <c r="H9" s="54" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" display="Tel: " r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/h.xlsx
+++ b/h.xlsx
@@ -1585,10 +1585,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
   <pageSetup orientation="portrait" paperSize="9" scale="65" fitToHeight="0"/>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="621" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CXCI2025012201'!$A$1:$H$6</definedName>
@@ -1585,10 +1585,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:C6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
   <pageSetup orientation="portrait" paperSize="9" scale="65" fitToHeight="0"/>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1585,8 +1585,8 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="621" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CXCI2025012201'!$A$1:$H$6</definedName>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1585,8 +1585,8 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A5:C6"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:C6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24750" windowHeight="12080" tabRatio="621" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CXCI2025012201" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CXCI2025012201'!$A$1:$H$6</definedName>
@@ -1585,8 +1585,8 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/h.xlsx
+++ b/h.xlsx
@@ -1585,10 +1585,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:C6"/>
   </mergeCells>
   <pageMargins left="0.392361111111111" right="0.156944444444444" top="0.511111111111111" bottom="0.195833333333333" header="0.431944444444444" footer="0.156944444444444"/>
   <pageSetup orientation="portrait" paperSize="9" scale="65" fitToHeight="0"/>
